--- a/biology/Zoologie/Baris_(genre)/Baris_(genre).xlsx
+++ b/biology/Zoologie/Baris_(genre)/Baris_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baris est un genre d'insectes coléoptères de la famille des Curculionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t>Selon Catalogue of Life                                   (24 sept. 2013)[1] :
+          <t>Selon Catalogue of Life                                   (24 sept. 2013) :
 Baris abeillei
 Baris abrotani
 Baris abrupta
@@ -1381,7 +1395,7 @@
 Baris yvonae
 Baris zapotensis
 Baris zuniana
-Selon ITIS      (24 sept. 2013)[2] :
+Selon ITIS      (24 sept. 2013) :
 Baris abrupta Casey, 1892
 Baris aeneomicans Casey, 1892
 Baris aerea (Boheman, 1844)
@@ -1474,7 +1488,7 @@
 Baris virginica Casey, 1920
 Baris vitreola Casey, 1892
 Baris xanthii Pierce, 1907
-Selon NCBI  (24 sept. 2013)[3] :
+Selon NCBI  (24 sept. 2013) :
 Baris artemisiae
 Baris cuprirostris</t>
         </is>
